--- a/input/23/vb-manager.xlsx
+++ b/input/23/vb-manager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkostro/git/github/stropitek/lvbc-scripts/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkostro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83D3C3-77EC-0B41-B328-828E72BEB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60E438-729B-9A44-AE2B-B4E28A1ACE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="17560" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34880" windowHeight="13640" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="195">
   <si>
     <t># Match</t>
   </si>
@@ -58,9 +58,6 @@
     <t>1L</t>
   </si>
   <si>
-    <t>2023 | 1L</t>
-  </si>
-  <si>
     <t>dim.</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
     <t>VBC Cheseaux</t>
   </si>
   <si>
+    <t>Salle Derrière la Ville 1-2</t>
+  </si>
+  <si>
     <t>VBC Le Locle</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>Collège des Tuillières 1-2</t>
   </si>
   <si>
-    <t>Salle Derrière la Ville 1-2</t>
-  </si>
-  <si>
     <t>Ecole des Racettes 1-2</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
     <t>Salle omnisport du Puisoir 3</t>
   </si>
   <si>
+    <t>mer.</t>
+  </si>
+  <si>
     <t>VBC Sainte-Croix</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>Lutry-Lavaux II M2</t>
   </si>
   <si>
+    <t>Salle omnisports de Grand-Vennes 1</t>
+  </si>
+  <si>
     <t>VBC Littoral</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
     <t>Bussigny M2</t>
   </si>
   <si>
-    <t>Salle omnisports de Grand-Vennes 1</t>
-  </si>
-  <si>
     <t>VBC Les Cèdres</t>
   </si>
   <si>
@@ -274,9 +274,6 @@
     <t>Salle omnisports de Grand-Vennes 3</t>
   </si>
   <si>
-    <t>mer.</t>
-  </si>
-  <si>
     <t>VBC Epalinges</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>Salle du Croset</t>
   </si>
   <si>
-    <t>Collège des Pâles</t>
-  </si>
-  <si>
     <t>M23</t>
   </si>
   <si>
@@ -478,6 +472,9 @@
     <t>BOPP/Froidev II M23F</t>
   </si>
   <si>
+    <t>Collège de Courbet 1</t>
+  </si>
+  <si>
     <t>M19</t>
   </si>
   <si>
@@ -568,6 +565,36 @@
     <t>La Côte M17F</t>
   </si>
   <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>2023 | M15</t>
+  </si>
+  <si>
+    <t>Lutry-Lavaux I M15</t>
+  </si>
+  <si>
+    <t>Lausanne I M15</t>
+  </si>
+  <si>
+    <t>Montreux I M15F</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>2023 | M13</t>
+  </si>
+  <si>
+    <t>Lausanne I M13</t>
+  </si>
+  <si>
+    <t>Bussigny I M13</t>
+  </si>
+  <si>
+    <t>Collège du Mottier 1-2</t>
+  </si>
+  <si>
     <t>Coupe vaudoise</t>
   </si>
   <si>
@@ -575,6 +602,9 @@
   </si>
   <si>
     <t>Montreux I F2</t>
+  </si>
+  <si>
+    <t>LUC IV M3</t>
   </si>
 </sst>
 </file>
@@ -715,19 +745,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24ABE3C0-2F79-6A4A-A176-7557550A0D40}" name="Table1" displayName="Table1" ref="A1:J163" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J163" xr:uid="{24ABE3C0-2F79-6A4A-A176-7557550A0D40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{229F7B5A-0A59-9A40-97C9-C6B76E60DFF0}" name="Table1" displayName="Table1" ref="A1:J167" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:J167" xr:uid="{229F7B5A-0A59-9A40-97C9-C6B76E60DFF0}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A632B917-BB88-7847-86A2-14EF00C10C9C}" name="# Match" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B2B9D919-AB3B-B04F-8E6D-1B7E5404856E}" name="H/F" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3E9A5C8F-0945-B942-BE5E-098ABDF70E28}" name="CL" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2113B4A8-F76A-6D4A-8F02-EF1723FE5A2F}" name="Ligue" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{44D48B07-0AD5-8D45-ADD3-D5C380A028CA}" name="Jour" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{869F7E14-6598-4F47-B8CF-7958CD6C095C}" name="Date/heure de début du match" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D2CEBAA0-05D3-A740-8D6B-5FED7C263C20}" name="Club recevant" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E7AEBCDA-F8DF-A942-8B3F-804832A5BE1B}" name="Equipe recevante" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{036D5566-8C92-324A-91E4-3F7C8F72F591}" name="Equipe visiteuse" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F345D67A-FAA0-CF4D-BE20-B167B2AFC37D}" name="Salle" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AC8EBC08-A238-EA41-91C8-008DE6A01EC0}" name="# Match" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6DC46FF3-2A8F-A041-B3A4-B5B140A00847}" name="H/F" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{59BD1F11-872A-0945-B83E-2DD953F09F0B}" name="CL" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3462FBBE-8F5C-1644-B1B2-DE8DA145968C}" name="Ligue" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{355EC0DA-CB52-D345-910F-05728F1E5772}" name="Jour" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{7D062AB5-2543-0D41-A015-1B03F5908BAB}" name="Date/heure de début du match" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F9039CE6-91AB-4A4B-ABC6-DF4819AD7085}" name="Club recevant" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{411B1A45-B082-3247-9942-AC82155555F4}" name="Equipe recevante" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{366BE4C1-DCE6-2044-BC3D-0AF73B622B7D}" name="Equipe visiteuse" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A1AFBCE0-229C-A246-9F02-D890D7700FD5}" name="Salle" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,22 +1060,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="11.5"/>
+    <col min="1" max="5" width="11.5"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" customWidth="1"/>
     <col min="11" max="1024" width="11.5"/>
   </cols>
   <sheetData>
@@ -1081,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>326392</v>
       </c>
@@ -1092,28 +1120,28 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>45193.729166666999</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>326401</v>
       </c>
@@ -1124,28 +1152,28 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>45198.854166666999</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>326404</v>
       </c>
@@ -1156,28 +1184,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4">
         <v>45205.864583333001</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>326413</v>
       </c>
@@ -1188,28 +1216,28 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>45213.770833333001</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>326417</v>
       </c>
@@ -1220,28 +1248,28 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>45219.854166666999</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>326422</v>
       </c>
@@ -1252,28 +1280,28 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
         <v>45226.854166666999</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>326430</v>
       </c>
@@ -1284,28 +1312,28 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>45234.708333333001</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>326435</v>
       </c>
@@ -1316,28 +1344,28 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
         <v>45241.78125</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>326439</v>
       </c>
@@ -1348,28 +1376,28 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4">
         <v>45248.666666666999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>326447</v>
       </c>
@@ -1380,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4">
         <v>45255.708333333001</v>
@@ -1395,13 +1423,13 @@
         <v>34</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>326454</v>
       </c>
@@ -1412,28 +1440,28 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4">
-        <v>45261.854166666999</v>
+        <v>45261.875</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>326458</v>
       </c>
@@ -1444,28 +1472,28 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>45269.75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>326467</v>
       </c>
@@ -1476,28 +1504,28 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="4">
         <v>45276.625</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>326470</v>
       </c>
@@ -1508,28 +1536,28 @@
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4">
         <v>45303.864583333001</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>326479</v>
       </c>
@@ -1540,28 +1568,28 @@
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4">
         <v>45311.666666666999</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>326483</v>
       </c>
@@ -1572,28 +1600,28 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4">
         <v>45317.854166666999</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>326488</v>
       </c>
@@ -1604,28 +1632,28 @@
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4">
         <v>45325.708333333001</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>326496</v>
       </c>
@@ -1636,28 +1664,28 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4">
-        <v>45331.833333333001</v>
+        <v>45331.875</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>326501</v>
       </c>
@@ -1668,28 +1696,28 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F20" s="4">
         <v>45340.666666666999</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>326505</v>
       </c>
@@ -1700,28 +1728,28 @@
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4">
         <v>45346.833333333001</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>326513</v>
       </c>
@@ -1732,28 +1760,28 @@
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="4">
         <v>45353.666666666999</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>326520</v>
       </c>
@@ -1764,10 +1792,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>45359.854166666999</v>
@@ -1779,13 +1807,13 @@
         <v>36</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>336452</v>
       </c>
@@ -1793,31 +1821,31 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F24" s="4">
         <v>45190.885416666999</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>336456</v>
       </c>
@@ -1825,16 +1853,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4">
-        <v>45199.708333333001</v>
+        <v>45196.875</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>49</v>
@@ -1843,13 +1871,13 @@
         <v>50</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>336467</v>
       </c>
@@ -1857,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4">
         <v>45212.802083333001</v>
@@ -1875,13 +1903,13 @@
         <v>53</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>336471</v>
       </c>
@@ -1889,31 +1917,31 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4">
-        <v>45234.645833333001</v>
+        <v>45233.875</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>336473</v>
       </c>
@@ -1921,31 +1949,31 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="4">
         <v>45240.875</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>336481</v>
       </c>
@@ -1953,31 +1981,31 @@
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4">
         <v>45254.864583333001</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>336483</v>
       </c>
@@ -1985,13 +2013,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F30" s="4">
         <v>45260.854166666999</v>
@@ -2003,13 +2031,13 @@
         <v>62</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>336487</v>
       </c>
@@ -2017,31 +2045,31 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F31" s="4">
         <v>45267.854166666999</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>336491</v>
       </c>
@@ -2049,31 +2077,31 @@
         <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4">
         <v>45275.864583333001</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>336495</v>
       </c>
@@ -2081,31 +2109,31 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4">
         <v>45282.875</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>336503</v>
       </c>
@@ -2113,31 +2141,31 @@
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F34" s="4">
         <v>45309.854166666999</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>336506</v>
       </c>
@@ -2145,13 +2173,13 @@
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="4">
         <v>45317.875</v>
@@ -2163,13 +2191,13 @@
         <v>55</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>336511</v>
       </c>
@@ -2177,31 +2205,31 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="4">
         <v>45324.875</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>336517</v>
       </c>
@@ -2209,13 +2237,13 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="4">
         <v>45345.864583333001</v>
@@ -2224,16 +2252,16 @@
         <v>67</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>336520</v>
       </c>
@@ -2241,31 +2269,31 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F38" s="4">
         <v>45351.854166666999</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>336521</v>
       </c>
@@ -2273,31 +2301,31 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F39" s="4">
         <v>45358.875</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>336711</v>
       </c>
@@ -2311,13 +2339,13 @@
         <v>72</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4">
         <v>45192.708333333001</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>73</v>
@@ -2326,10 +2354,10 @@
         <v>74</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>336715</v>
       </c>
@@ -2343,13 +2371,13 @@
         <v>72</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="4">
         <v>45197.854166666999</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>73</v>
@@ -2361,7 +2389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>336717</v>
       </c>
@@ -2375,13 +2403,13 @@
         <v>72</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="4">
         <v>45205.875</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>77</v>
@@ -2393,7 +2421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>336725</v>
       </c>
@@ -2407,13 +2435,13 @@
         <v>72</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="4">
         <v>45212.854166666999</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>73</v>
@@ -2422,10 +2450,10 @@
         <v>79</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>336730</v>
       </c>
@@ -2439,7 +2467,7 @@
         <v>72</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="4">
         <v>45234.604166666999</v>
@@ -2457,7 +2485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>336735</v>
       </c>
@@ -2471,13 +2499,13 @@
         <v>72</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="4">
         <v>45240.864583333001</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>73</v>
@@ -2489,7 +2517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>336750</v>
       </c>
@@ -2503,25 +2531,25 @@
         <v>72</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F46" s="4">
         <v>45245.864583333001</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>336740</v>
       </c>
@@ -2535,25 +2563,25 @@
         <v>72</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="4">
         <v>45247.875</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>336747</v>
       </c>
@@ -2567,25 +2595,25 @@
         <v>72</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="4">
         <v>45260.854166666999</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>336753</v>
       </c>
@@ -2599,13 +2627,13 @@
         <v>72</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="4">
         <v>45274.875</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>74</v>
@@ -2614,10 +2642,10 @@
         <v>73</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>336758</v>
       </c>
@@ -2631,13 +2659,13 @@
         <v>72</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F50" s="4">
         <v>45280.875</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>75</v>
@@ -2646,10 +2674,10 @@
         <v>73</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>336765</v>
       </c>
@@ -2663,13 +2691,13 @@
         <v>72</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" s="4">
         <v>45302.854166666999</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>73</v>
@@ -2681,7 +2709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>336771</v>
       </c>
@@ -2695,13 +2723,13 @@
         <v>72</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="4">
         <v>45307.875</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>79</v>
@@ -2710,10 +2738,10 @@
         <v>73</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>336775</v>
       </c>
@@ -2727,13 +2755,13 @@
         <v>72</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" s="4">
         <v>45316.854166666999</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>73</v>
@@ -2745,7 +2773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>336779</v>
       </c>
@@ -2759,13 +2787,13 @@
         <v>72</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="4">
         <v>45325.666666666999</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>82</v>
@@ -2774,10 +2802,10 @@
         <v>73</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>336785</v>
       </c>
@@ -2791,25 +2819,25 @@
         <v>72</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="4">
         <v>45330.854166666999</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>336792</v>
       </c>
@@ -2823,25 +2851,25 @@
         <v>72</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="4">
         <v>45352.833333333001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>336796</v>
       </c>
@@ -2855,25 +2883,25 @@
         <v>72</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="4">
         <v>45359.875</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>336619</v>
       </c>
@@ -2881,31 +2909,31 @@
         <v>70</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" s="4">
         <v>45190.854166666999</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="J58" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>336623</v>
       </c>
@@ -2913,31 +2941,31 @@
         <v>70</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" s="4">
         <v>45197.854166666999</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>336625</v>
       </c>
@@ -2945,31 +2973,31 @@
         <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="4">
         <v>45205.8125</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>336633</v>
       </c>
@@ -2977,31 +3005,31 @@
         <v>70</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" s="4">
         <v>45211.854166666999</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>336638</v>
       </c>
@@ -3009,31 +3037,31 @@
         <v>70</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" s="4">
         <v>45233.875</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>336643</v>
       </c>
@@ -3041,31 +3069,31 @@
         <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="4">
         <v>45239.854166666999</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>336648</v>
       </c>
@@ -3073,31 +3101,31 @@
         <v>70</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F64" s="4">
         <v>45244.864583333001</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>336655</v>
       </c>
@@ -3105,31 +3133,31 @@
         <v>70</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" s="4">
         <v>45260.854166666999</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>336658</v>
       </c>
@@ -3137,31 +3165,31 @@
         <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E66" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" s="4">
         <v>45267.864583333001</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>336661</v>
       </c>
@@ -3169,31 +3197,31 @@
         <v>70</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" s="4">
         <v>45274.854166666999</v>
       </c>
       <c r="G67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>336666</v>
       </c>
@@ -3201,31 +3229,31 @@
         <v>70</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" s="4">
         <v>45281.875</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>336673</v>
       </c>
@@ -3233,31 +3261,31 @@
         <v>70</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" s="4">
         <v>45302.854166666999</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>336679</v>
       </c>
@@ -3265,31 +3293,31 @@
         <v>70</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F70" s="4">
         <v>45308.875</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>336683</v>
       </c>
@@ -3297,31 +3325,31 @@
         <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" s="4">
         <v>45316.854166666999</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>336687</v>
       </c>
@@ -3329,31 +3357,31 @@
         <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" s="4">
         <v>45323.875</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>336693</v>
       </c>
@@ -3361,31 +3389,31 @@
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" s="4">
         <v>45330.854166666999</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>336700</v>
       </c>
@@ -3393,13 +3421,13 @@
         <v>70</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E74" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4">
         <v>45352.802083333001</v>
@@ -3408,16 +3436,16 @@
         <v>65</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>336704</v>
       </c>
@@ -3425,31 +3453,31 @@
         <v>70</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" s="4">
         <v>45358.854166666999</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>336273</v>
       </c>
@@ -3457,31 +3485,31 @@
         <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F76" s="4">
         <v>45188.854166666999</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="J76" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>336277</v>
       </c>
@@ -3489,31 +3517,31 @@
         <v>10</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F77" s="4">
         <v>45195.854166666999</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>336279</v>
       </c>
@@ -3521,31 +3549,31 @@
         <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E78" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" s="4">
         <v>45205.885416666999</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>336287</v>
       </c>
@@ -3553,31 +3581,31 @@
         <v>10</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="4">
         <v>45209.854166666999</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>336292</v>
       </c>
@@ -3585,31 +3613,31 @@
         <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" s="4">
         <v>45232.885416666999</v>
       </c>
       <c r="G80" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>336297</v>
       </c>
@@ -3617,31 +3645,31 @@
         <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="4">
         <v>45237.854166666999</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>336302</v>
       </c>
@@ -3649,31 +3677,31 @@
         <v>10</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" s="4">
         <v>45247.833333333001</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>336309</v>
       </c>
@@ -3681,31 +3709,31 @@
         <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83" s="4">
         <v>45258.854166666999</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>336312</v>
       </c>
@@ -3713,31 +3741,31 @@
         <v>10</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" s="4">
         <v>45267.875</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>336315</v>
       </c>
@@ -3745,31 +3773,31 @@
         <v>10</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="4">
         <v>45275.875</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>336320</v>
       </c>
@@ -3777,31 +3805,31 @@
         <v>10</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F86" s="4">
         <v>45279.875</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>336327</v>
       </c>
@@ -3809,31 +3837,31 @@
         <v>10</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F87" s="4">
         <v>45300.854166666999</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>336333</v>
       </c>
@@ -3841,31 +3869,31 @@
         <v>10</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E88" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="4">
         <v>45306.864583333001</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>336337</v>
       </c>
@@ -3873,31 +3901,31 @@
         <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E89" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F89" s="4">
         <v>45314.854166666999</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>336341</v>
       </c>
@@ -3905,31 +3933,31 @@
         <v>10</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" s="4">
         <v>45324.875</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>336347</v>
       </c>
@@ -3937,31 +3965,31 @@
         <v>10</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E91" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F91" s="4">
         <v>45328.854166666999</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>336354</v>
       </c>
@@ -3969,31 +3997,31 @@
         <v>10</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F92" s="4">
-        <v>45352.854166666999</v>
+        <v>45353.604166666999</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>336358</v>
       </c>
@@ -4001,31 +4029,31 @@
         <v>10</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" s="4">
         <v>45356.854166666999</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>336920</v>
       </c>
@@ -4033,31 +4061,31 @@
         <v>70</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F94" s="4">
         <v>45192.625</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>336922</v>
       </c>
@@ -4065,31 +4093,31 @@
         <v>70</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" s="4">
         <v>45198.822916666999</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>336925</v>
       </c>
@@ -4097,31 +4125,31 @@
         <v>70</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96" s="4">
         <v>45205.802083333001</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>336932</v>
       </c>
@@ -4129,31 +4157,31 @@
         <v>70</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" s="4">
         <v>45233.802083333001</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>336936</v>
       </c>
@@ -4161,31 +4189,31 @@
         <v>70</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" s="4">
         <v>45241.416666666999</v>
       </c>
       <c r="G98" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>336938</v>
       </c>
@@ -4193,31 +4221,31 @@
         <v>70</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99" s="4">
         <v>45247.802083333001</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>336941</v>
       </c>
@@ -4225,31 +4253,31 @@
         <v>70</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F100" s="4">
         <v>45253.802083333001</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>336943</v>
       </c>
@@ -4257,31 +4285,31 @@
         <v>70</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F101" s="4">
         <v>45261.802083333001</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>336946</v>
       </c>
@@ -4289,31 +4317,31 @@
         <v>70</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102" s="4">
         <v>45268.822916666999</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>336950</v>
       </c>
@@ -4321,31 +4349,31 @@
         <v>70</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F103" s="4">
         <v>45275.802083333001</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>336953</v>
       </c>
@@ -4353,31 +4381,31 @@
         <v>70</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F104" s="4">
         <v>45282.802083333001</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="J104" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>336955</v>
       </c>
@@ -4385,31 +4413,31 @@
         <v>70</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F105" s="4">
         <v>45304.541666666999</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>336962</v>
       </c>
@@ -4417,31 +4445,31 @@
         <v>70</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F106" s="4">
         <v>45313.802083333001</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>336965</v>
       </c>
@@ -4449,31 +4477,31 @@
         <v>70</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" s="4">
         <v>45324.802083333001</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>336967</v>
       </c>
@@ -4481,31 +4509,31 @@
         <v>70</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108" s="4">
         <v>45331.802083333001</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>336971</v>
       </c>
@@ -4513,31 +4541,31 @@
         <v>70</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" s="4">
         <v>45345.802083333001</v>
       </c>
       <c r="G109" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>336975</v>
       </c>
@@ -4545,31 +4573,31 @@
         <v>70</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F110" s="4">
         <v>45348.802083333001</v>
       </c>
       <c r="G110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>336976</v>
       </c>
@@ -4577,31 +4605,31 @@
         <v>70</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" s="4">
         <v>45359.802083333001</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>337029</v>
       </c>
@@ -4609,31 +4637,31 @@
         <v>70</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="4">
         <v>45191.802083333001</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H112" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="J112" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>337033</v>
       </c>
@@ -4641,31 +4669,31 @@
         <v>70</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" s="4">
         <v>45198.78125</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I113" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="J113" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>337037</v>
       </c>
@@ -4673,31 +4701,31 @@
         <v>70</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F114" s="4">
         <v>45202.791666666999</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>337040</v>
       </c>
@@ -4705,31 +4733,31 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E115" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" s="4">
         <v>45213.416666666999</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H115" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J115" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>337045</v>
       </c>
@@ -4737,31 +4765,31 @@
         <v>70</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E116" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F116" s="4">
         <v>45234.375</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>337049</v>
       </c>
@@ -4769,31 +4797,31 @@
         <v>70</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E117" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" s="4">
         <v>45240.791666666999</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>337054</v>
       </c>
@@ -4801,31 +4829,31 @@
         <v>70</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F118" s="4">
         <v>45245.802083333001</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>337058</v>
       </c>
@@ -4833,31 +4861,31 @@
         <v>70</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E119" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" s="4">
         <v>45254.791666666999</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>337056</v>
       </c>
@@ -4865,13 +4893,13 @@
         <v>70</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E120" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F120" s="4">
         <v>45255.604166666999</v>
@@ -4880,16 +4908,16 @@
         <v>49</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>337061</v>
       </c>
@@ -4897,31 +4925,31 @@
         <v>70</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E121" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F121" s="4">
         <v>45258.791666666999</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>337065</v>
       </c>
@@ -4929,31 +4957,31 @@
         <v>70</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E122" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" s="4">
         <v>45268.791666666999</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>337069</v>
       </c>
@@ -4961,31 +4989,31 @@
         <v>70</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E123" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F123" s="4">
         <v>45275.791666666999</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>337071</v>
       </c>
@@ -4993,31 +5021,31 @@
         <v>70</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E124" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" s="4">
         <v>45282.802083333001</v>
       </c>
       <c r="G124" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>337076</v>
       </c>
@@ -5025,31 +5053,31 @@
         <v>70</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E125" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" s="4">
         <v>45303.802083333001</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>337081</v>
       </c>
@@ -5057,31 +5085,31 @@
         <v>70</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E126" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F126" s="4">
         <v>45310.791666666999</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>337085</v>
       </c>
@@ -5089,31 +5117,31 @@
         <v>70</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E127" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" s="4">
         <v>45317.78125</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>337088</v>
       </c>
@@ -5121,13 +5149,13 @@
         <v>70</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E128" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F128" s="4">
         <v>45325.416666666999</v>
@@ -5136,16 +5164,16 @@
         <v>49</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>337097</v>
       </c>
@@ -5153,31 +5181,31 @@
         <v>70</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E129" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F129" s="4">
         <v>45345.791666666999</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>337102</v>
       </c>
@@ -5185,31 +5213,31 @@
         <v>70</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E130" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F130" s="4">
         <v>45353.5625</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>337104</v>
       </c>
@@ -5217,31 +5245,31 @@
         <v>70</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E131" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F131" s="4">
         <v>45360.375</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>337107</v>
       </c>
@@ -5249,31 +5277,31 @@
         <v>70</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E132" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F132" s="4">
         <v>45365.802083333001</v>
       </c>
       <c r="G132" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J132" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>337248</v>
       </c>
@@ -5281,31 +5309,31 @@
         <v>10</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E133" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F133" s="4">
         <v>45192.416666666999</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="J133" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>337249</v>
       </c>
@@ -5313,31 +5341,31 @@
         <v>10</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E134" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F134" s="4">
         <v>45192.458333333001</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="J134" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>337223</v>
       </c>
@@ -5345,13 +5373,13 @@
         <v>10</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135" s="4">
         <v>45200.375</v>
@@ -5360,16 +5388,16 @@
         <v>52</v>
       </c>
       <c r="H135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J135" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>337222</v>
       </c>
@@ -5377,31 +5405,31 @@
         <v>10</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F136" s="4">
         <v>45200.416666666999</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>337232</v>
       </c>
@@ -5409,13 +5437,13 @@
         <v>10</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E137" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F137" s="4">
         <v>45234.375</v>
@@ -5424,16 +5452,16 @@
         <v>52</v>
       </c>
       <c r="H137" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I137" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>337233</v>
       </c>
@@ -5441,13 +5469,13 @@
         <v>10</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F138" s="4">
         <v>45234.416666666999</v>
@@ -5456,16 +5484,16 @@
         <v>52</v>
       </c>
       <c r="H138" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>337235</v>
       </c>
@@ -5473,31 +5501,31 @@
         <v>10</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F139" s="4">
         <v>45248.416666666999</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H139" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>337236</v>
       </c>
@@ -5505,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E140" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F140" s="4">
         <v>45248.458333333001</v>
@@ -5520,16 +5548,16 @@
         <v>65</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>337237</v>
       </c>
@@ -5537,31 +5565,31 @@
         <v>10</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F141" s="4">
         <v>45249.375</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>337238</v>
       </c>
@@ -5569,31 +5597,31 @@
         <v>10</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F142" s="4">
         <v>45249.416666666999</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>337243</v>
       </c>
@@ -5601,31 +5629,31 @@
         <v>10</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E143" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F143" s="4">
         <v>45304.375</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>337244</v>
       </c>
@@ -5633,31 +5661,31 @@
         <v>10</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E144" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F144" s="4">
         <v>45304.416666666999</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>337255</v>
       </c>
@@ -5665,31 +5693,31 @@
         <v>10</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="4">
+        <v>45353.375</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="4">
-        <v>45354.375</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="I145" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>337253</v>
       </c>
@@ -5697,31 +5725,31 @@
         <v>10</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="4">
+        <v>45353.458333333001</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="4">
-        <v>45354.458333333001</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="J146" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>337258</v>
       </c>
@@ -5729,31 +5757,31 @@
         <v>10</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E147" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F147" s="4">
         <v>45374.5</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>337260</v>
       </c>
@@ -5761,31 +5789,31 @@
         <v>10</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E148" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F148" s="4">
         <v>45374.583333333001</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>337265</v>
       </c>
@@ -5793,13 +5821,13 @@
         <v>70</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E149" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F149" s="4">
         <v>45206.5</v>
@@ -5808,16 +5836,16 @@
         <v>65</v>
       </c>
       <c r="H149" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>337268</v>
       </c>
@@ -5825,13 +5853,13 @@
         <v>70</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E150" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F150" s="4">
         <v>45241.375</v>
@@ -5840,16 +5868,16 @@
         <v>67</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>337266</v>
       </c>
@@ -5857,31 +5885,31 @@
         <v>70</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E151" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F151" s="4">
         <v>45241.416666666999</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>337273</v>
       </c>
@@ -5889,31 +5917,31 @@
         <v>70</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F152" s="4">
         <v>45255.458333333001</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I152" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>337272</v>
       </c>
@@ -5921,31 +5949,31 @@
         <v>70</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F153" s="4">
         <v>45255.5</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>337280</v>
       </c>
@@ -5953,31 +5981,31 @@
         <v>70</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F154" s="4">
         <v>45262.375</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>337286</v>
       </c>
@@ -5985,31 +6013,31 @@
         <v>70</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E155" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F155" s="4">
         <v>45272.791666666999</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>337288</v>
       </c>
@@ -6017,31 +6045,31 @@
         <v>70</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E156" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F156" s="4">
         <v>45304.458333333001</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>337287</v>
       </c>
@@ -6049,13 +6077,13 @@
         <v>70</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E157" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F157" s="4">
         <v>45304.5</v>
@@ -6064,16 +6092,16 @@
         <v>49</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>337293</v>
       </c>
@@ -6081,31 +6109,31 @@
         <v>70</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E158" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F158" s="4">
         <v>45325.416666666999</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>337295</v>
       </c>
@@ -6113,31 +6141,31 @@
         <v>70</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E159" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F159" s="4">
         <v>45325.458333333001</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>337301</v>
       </c>
@@ -6145,122 +6173,250 @@
         <v>70</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E160" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F160" s="4">
         <v>45346.375</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I160" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>345540</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A161" s="2">
-        <v>341869</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="E161" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F161" s="4">
+        <v>45210.583333333001</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F161" s="4">
-        <v>45167</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>184</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
+        <v>345539</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F162" s="4">
+        <v>45210.583333333001</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>344464</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F163" s="4">
+        <v>45203.583333333001</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>341869</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F164" s="4">
+        <v>45210.833333333001</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
         <v>341881</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="B165" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="4">
+        <v>45209.854166666999</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>341883</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F166" s="4">
+        <v>45167</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F162" s="4">
+      <c r="H166" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>341909</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167" s="4">
         <v>45167</v>
       </c>
-      <c r="G162" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A163" s="2">
-        <v>341909</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F163" s="4">
-        <v>45167</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3" t="s">
-        <v>60</v>
+      <c r="G167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
